--- a/DealerManagement(16Feb2021).xlsx
+++ b/DealerManagement(16Feb2021).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
   <si>
     <t>Project Name:-&gt;Mpartner Revamp</t>
   </si>
@@ -187,12 +187,6 @@
   </si>
   <si>
     <t>Dealer should be able to search the dealer details by entering the Dealer Phone number</t>
-  </si>
-  <si>
-    <t>dealer should be only able to search his/her reports</t>
-  </si>
-  <si>
-    <t>To verify if dealer is able to search the dealer details report</t>
   </si>
   <si>
     <t xml:space="preserve">To verify if Distributor is able to search Dealer details by entering the daeler code </t>
@@ -288,9 +282,6 @@
     <t>Dealer management_11</t>
   </si>
   <si>
-    <t>Dealer management_12</t>
-  </si>
-  <si>
     <t>Bug ID_1</t>
   </si>
   <si>
@@ -300,10 +291,16 @@
     <t>High</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>Dealer deatails  is not getting updated while click on cross and enter dealer code again and aslo no pdf icon is showing on the screen</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Jitendra</t>
   </si>
 </sst>
 </file>
@@ -473,35 +470,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -524,22 +508,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,6 +531,38 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,40 +861,45 @@
     <col min="8" max="8" width="20.5703125" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="13"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="28"/>
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
@@ -904,22 +912,24 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="37">
+        <v>44249</v>
+      </c>
+      <c r="H3" s="38"/>
       <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="29"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
@@ -929,12 +939,12 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="1"/>
@@ -945,428 +955,441 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>75</v>
+      <c r="A6" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="B6">
         <v>14050</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="23">
         <v>44243</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="M6" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>76</v>
+      <c r="A7" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="B7">
         <v>14050</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="23">
         <v>44243</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="J7" s="17" t="s">
+      <c r="F7" s="15"/>
+      <c r="J7" s="12" t="s">
         <v>46</v>
       </c>
+      <c r="M7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>77</v>
+      <c r="A8" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="B8">
         <v>14050</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="23">
         <v>44243</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="12" t="s">
         <v>31</v>
       </c>
+      <c r="M8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>78</v>
+      <c r="A9" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="B9">
         <v>14050</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="23">
         <v>44243</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="J9" s="17" t="s">
+      <c r="H9" s="12"/>
+      <c r="J9" s="12" t="s">
         <v>47</v>
       </c>
+      <c r="M9" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>79</v>
+      <c r="A10" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="B10">
         <v>14050</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="23">
         <v>44243</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G10" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="J10" s="17" t="s">
+      <c r="H10" s="12"/>
+      <c r="J10" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" s="17" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>80</v>
+      <c r="M10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="B11">
         <v>14050</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="23">
         <v>44243</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" s="17" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>81</v>
+      <c r="M11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="B12">
         <v>14050</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="23">
         <v>44243</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>82</v>
+      <c r="M12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="B13">
         <v>14050</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="23">
         <v>44243</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
       <c r="G13"/>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>83</v>
+      <c r="M13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="B14">
         <v>14050</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="23">
         <v>44243</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>84</v>
+      <c r="M14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="B15">
         <v>14050</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="23">
         <v>44243</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G15" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>85</v>
+      <c r="M15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="B16">
         <v>14050</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="23">
         <v>44243</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17">
-        <v>14050</v>
-      </c>
-      <c r="C17" s="33">
-        <v>44243</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="M16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:C2"/>
@@ -1384,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,210 +1420,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25" t="s">
+      <c r="I2" s="32"/>
+      <c r="J2" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="24" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+    </row>
+    <row r="4" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="24" t="s">
+      <c r="B4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-    </row>
-    <row r="4" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="D4" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="30" t="s">
+      <c r="E4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="M4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="30" t="s">
+      <c r="N4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="O4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="P4" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="Q4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="R4" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
     </row>
     <row r="5" spans="1:26" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>14050</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>81</v>
+      <c r="B5" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>88</v>
+      <c r="F5" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="I5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" t="s">
         <v>89</v>
-      </c>
-      <c r="J5" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
